--- a/Solar Lamp BOM.xlsx
+++ b/Solar Lamp BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr date1904="1" defaultThemeVersion="124226"/>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="Unspecified"/>
@@ -193,33 +193,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="\$0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\$0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -228,7 +211,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -257,144 +240,408 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.1887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.45918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.2295918367347"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="1" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="256" min="12" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="12.4183673469388"/>
+    <col min="1" max="1" width="14" style="2"/>
+    <col min="2" max="2" width="17.140625" style="2"/>
+    <col min="3" max="3" width="12.42578125" style="2"/>
+    <col min="4" max="4" width="10.28515625" style="2"/>
+    <col min="5" max="5" width="8.42578125" style="2"/>
+    <col min="6" max="7" width="12.42578125" style="2"/>
+    <col min="8" max="8" width="22.28515625" style="2"/>
+    <col min="9" max="11" width="42.42578125" style="2"/>
+    <col min="12" max="256" width="12.42578125" style="2"/>
+    <col min="257" max="1025" width="12.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -429,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -438,13 +685,13 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="7">
         <v>2.95</v>
       </c>
       <c r="H3" s="5"/>
@@ -452,12 +699,12 @@
         <v>15</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="7" t="n">
-        <f aca="false">G3*E3</f>
+      <c r="K3" s="7">
+        <f>G3*E3</f>
         <v>2.95</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="32.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -470,11 +717,11 @@
       <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="7">
         <v>0.38</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -486,7 +733,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="44.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -499,11 +746,11 @@
       <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="7">
         <v>1.21</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -513,12 +760,12 @@
         <v>27</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="7" t="n">
-        <f aca="false">G5*E5</f>
+      <c r="K5" s="7">
+        <f t="shared" ref="K5:K11" si="0">G5*E5</f>
         <v>1.21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="56.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -529,11 +776,11 @@
         <v>30</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="7">
         <v>0.41</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -545,12 +792,12 @@
       <c r="J6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7" t="n">
-        <f aca="false">G6*E6</f>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="32.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -563,24 +810,24 @@
       <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="7" t="n">
-        <v>0.55</v>
+      <c r="G7" s="7">
+        <v>0.55000000000000004</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="8" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="7" t="n">
-        <f aca="false">G7*E7</f>
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="32.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -589,11 +836,11 @@
       <c r="D8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="6">
         <v>2</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="7">
         <v>2.33</v>
       </c>
       <c r="H8" s="5"/>
@@ -601,12 +848,12 @@
         <v>41</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="6" t="n">
-        <f aca="false">G8*E8</f>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -619,11 +866,11 @@
       <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="7">
         <v>3.21</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -633,12 +880,12 @@
         <v>46</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="7" t="n">
-        <f aca="false">G9*E9</f>
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
         <v>3.21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="32.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -647,11 +894,11 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="7">
         <v>0.1</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -661,12 +908,12 @@
         <v>50</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="7" t="n">
-        <f aca="false">G10*E10</f>
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="44.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -677,11 +924,11 @@
       <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="7">
         <v>0.4</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -691,12 +938,12 @@
         <v>54</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="7" t="n">
-        <f aca="false">G11*E11</f>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -709,7 +956,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -718,8 +965,8 @@
       <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="7" t="n">
-        <f aca="false">SUM(K3:K15)</f>
+      <c r="G13" s="7">
+        <f>SUM(K3:K15)</f>
         <v>14.04</v>
       </c>
       <c r="H13" s="5"/>
@@ -727,7 +974,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -740,7 +987,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -758,22 +1005,20 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="http://www.adafruit.com/product/700"/>
-    <hyperlink ref="I4" r:id="rId2" display="http://www.digikey.com/product-detail/en/1N5817-T/1N5817DICT-ND/190530"/>
-    <hyperlink ref="I5" r:id="rId3" display="http://www.digikey.com/product-search/en/discrete-semiconductor-products/fets-single/1376381?k=TP0604"/>
-    <hyperlink ref="I6" r:id="rId4" display="http://www.digikey.com/product-detail/en/JS202011CQN/401-2001-ND/1640097"/>
-    <hyperlink ref="J6" r:id="rId5" display="http://www.mouser.com/ProductDetail/CK-Components/JS202011CQN/?qs=%2fha2pyFadujEk0HYYCwwdCngFEJLgpLwbgeFG0CLXqejQrlcBWDxEg%3d%3d"/>
-    <hyperlink ref="I7" r:id="rId6" display="http://shop.evilmadscientist.com/productsmenu/partsmenu/353"/>
-    <hyperlink ref="I8" r:id="rId7" display="http://www.onlybatteries.com/showitem.asp?ItemID=17950"/>
-    <hyperlink ref="I9" r:id="rId8" display="http://www.digikey.com/product-detail/en/1077/36-1077-ND/5118847"/>
-    <hyperlink ref="I10" r:id="rId9" display="http://www.digikey.com/product-detail/en/CF14JT1M00/CF14JT1M00CT-ND/1830423"/>
-    <hyperlink ref="I11" r:id="rId10" display="http://www.mouser.com/ProductDetail/Microchip-Technology/MCP1700-2102E-TO/?qs=uHi2%2FQoPa5B%2FKH9GbYAWTA%3D%3D"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="I5" r:id="rId3"/>
+    <hyperlink ref="I6" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.277777777777778"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.27777777777777801"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddFooter>&amp;C&amp;12&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
